--- a/biology/Médecine/1433_en_santé_et_médecine/1433_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1433_en_santé_et_médecine/1433_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1433_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1433_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1433 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1433_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1433_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mai : le roi Charles VII confirme la création de la faculté de médecine de l'université d'Angers, accordée par le pape Eugène IV en 1432 en même temps qu'aux arts et à la théologie[1].
-En Pologne, Johannes de Saccis de Pavie rédige les premiers statuts de la faculté de médecine de l'université Jagellon de Cracovie[2].
-À Malte, l'administration de l'hôpital Saint-François de Rabat, qui devient hôpital du Saint-Esprit, est confiée à l'Università[3].
-En Angleterre, fondation de l'hôpital de Toddington dans le comté de Bedford par John Broughton, pour un chapelain et trois indigents[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mai : le roi Charles VII confirme la création de la faculté de médecine de l'université d'Angers, accordée par le pape Eugène IV en 1432 en même temps qu'aux arts et à la théologie.
+En Pologne, Johannes de Saccis de Pavie rédige les premiers statuts de la faculté de médecine de l'université Jagellon de Cracovie.
+À Malte, l'administration de l'hôpital Saint-François de Rabat, qui devient hôpital du Saint-Esprit, est confiée à l'Università.
+En Angleterre, fondation de l'hôpital de Toddington dans le comté de Bedford par John Broughton, pour un chapelain et trois indigents.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1433_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1433_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lydwine de Schiedam (née vers 1380), sainte et mystique catholique, patronne des personnes handicapées[5],[6].
-Jean Piscis (né à une date inconnue), docteur en médecine, chancelier de l'université de médecine de Montpellier de 1394 à sa mort[7].
-8 avril : Beuvin Dominici de Winvilla (né à une date inconnue), avocat, cofondateur du collège de la Marche, étudia la médecine à Paris au moins jusqu'en 1379[8].
-Avant juillet : Antoine de Prat (né à une date inconnue), médecin à Draguignan, Nice et Brignoles, au service de Yolande d'Aragon, veuve du roi Louis II[8].
-Avant le 1er décembre : Jean Le Conte (né à une date inconnue), chirurgien de Philippe le Hardi, duc de Bourgogne, chirurgien juré du roi au Châtelet, prévôt des écoles de chirurgie, chirurgien de Charles VI[7].
-1432 ou 1433 : Henri Doigny (né à une date inconnue), reçu docteur en médecine à Paris, doyen de la faculté en 1400, médecin du duc d'Orléans ; a soigné le roi Charles VI et le duc de Berry[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lydwine de Schiedam (née vers 1380), sainte et mystique catholique, patronne des personnes handicapées,.
+Jean Piscis (né à une date inconnue), docteur en médecine, chancelier de l'université de médecine de Montpellier de 1394 à sa mort.
+8 avril : Beuvin Dominici de Winvilla (né à une date inconnue), avocat, cofondateur du collège de la Marche, étudia la médecine à Paris au moins jusqu'en 1379.
+Avant juillet : Antoine de Prat (né à une date inconnue), médecin à Draguignan, Nice et Brignoles, au service de Yolande d'Aragon, veuve du roi Louis II.
+Avant le 1er décembre : Jean Le Conte (né à une date inconnue), chirurgien de Philippe le Hardi, duc de Bourgogne, chirurgien juré du roi au Châtelet, prévôt des écoles de chirurgie, chirurgien de Charles VI.
+1432 ou 1433 : Henri Doigny (né à une date inconnue), reçu docteur en médecine à Paris, doyen de la faculté en 1400, médecin du duc d'Orléans ; a soigné le roi Charles VI et le duc de Berry.
 </t>
         </is>
       </c>
